--- a/Code/Results/Cases/Case_3_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.495879150810708</v>
+        <v>1.338543043387347</v>
       </c>
       <c r="C2">
-        <v>0.5446869319787595</v>
+        <v>0.2813589074824279</v>
       </c>
       <c r="D2">
-        <v>0.05257666190608035</v>
+        <v>0.02398733850719026</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4324038836558586</v>
+        <v>0.6040807872797771</v>
       </c>
       <c r="G2">
-        <v>0.0007853472176959974</v>
+        <v>0.002410267303696152</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1904378979387644</v>
+        <v>0.5401732232996466</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4079974107167175</v>
+        <v>0.3007798078620425</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.165219048924797</v>
+        <v>2.023845372558668</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.040399026687396</v>
+        <v>1.195971690265196</v>
       </c>
       <c r="C3">
-        <v>0.492613991026559</v>
+        <v>0.2639301899934594</v>
       </c>
       <c r="D3">
-        <v>0.04703159049044103</v>
+        <v>0.02211355234758372</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4009187473370091</v>
+        <v>0.6038970663067218</v>
       </c>
       <c r="G3">
-        <v>0.0007896934706619693</v>
+        <v>0.002413129957934696</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.199812972263306</v>
+        <v>0.5503736551894391</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3594045602058173</v>
+        <v>0.2893174225126529</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1096527344734</v>
+        <v>2.037845517922548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.76111885324076</v>
+        <v>1.108304077494893</v>
       </c>
       <c r="C4">
-        <v>0.4606505634686187</v>
+        <v>0.2531897416896243</v>
       </c>
       <c r="D4">
-        <v>0.04362472947933327</v>
+        <v>0.02095752483778313</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3828847955294208</v>
+        <v>0.6043341583847521</v>
       </c>
       <c r="G4">
-        <v>0.000792447411296652</v>
+        <v>0.002414981385356337</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2066014836297967</v>
+        <v>0.5571156514128255</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3300220269984209</v>
+        <v>0.2824536761256695</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.079828006273658</v>
+        <v>2.048296630088643</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.647365554365081</v>
+        <v>1.072548741422565</v>
       </c>
       <c r="C5">
-        <v>0.4476242615145338</v>
+        <v>0.2488034291330905</v>
       </c>
       <c r="D5">
-        <v>0.04223550630073447</v>
+        <v>0.02048508053957221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3758411206881291</v>
+        <v>0.6046502408421972</v>
       </c>
       <c r="G5">
-        <v>0.0007935915699376973</v>
+        <v>0.002415759501094551</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.209614608123676</v>
+        <v>0.5599832255359409</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3181517075862814</v>
+        <v>0.2797004615133858</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.068687992831258</v>
+        <v>2.0530208597269</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.628479106541192</v>
+        <v>1.066609843196773</v>
       </c>
       <c r="C6">
-        <v>0.4454611042253021</v>
+        <v>0.2480745223288068</v>
       </c>
       <c r="D6">
-        <v>0.04200476268913889</v>
+        <v>0.02040655074555531</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.37468936736785</v>
+        <v>0.6047110496029475</v>
       </c>
       <c r="G6">
-        <v>0.0007937828923230721</v>
+        <v>0.002415890136846016</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2101294763433224</v>
+        <v>0.5604666333829691</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.316186585594977</v>
+        <v>0.2792459392174607</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.066897575700978</v>
+        <v>2.053833385271048</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.759584564029524</v>
+        <v>1.107821987395027</v>
       </c>
       <c r="C7">
-        <v>0.4604748942643084</v>
+        <v>0.2531306243133429</v>
       </c>
       <c r="D7">
-        <v>0.04360599802100751</v>
+        <v>0.02095115872523223</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3827885929818322</v>
+        <v>0.604337862988956</v>
       </c>
       <c r="G7">
-        <v>0.0007924627525072839</v>
+        <v>0.002414991783495257</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2066411370347048</v>
+        <v>0.5571538383664887</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.329861535263035</v>
+        <v>0.2824163678756548</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.079673747701349</v>
+        <v>2.048358460158212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.338723365854719</v>
+        <v>1.289412306359395</v>
       </c>
       <c r="C8">
-        <v>0.5267280765849023</v>
+        <v>0.2753578143520485</v>
       </c>
       <c r="D8">
-        <v>0.05066494593145876</v>
+        <v>0.02334242096022621</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4212653480174637</v>
+        <v>0.6039031193650075</v>
       </c>
       <c r="G8">
-        <v>0.0007868283749870681</v>
+        <v>0.00241123493252708</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.193448289212018</v>
+        <v>0.5435907805346893</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3911417448485963</v>
+        <v>0.2967914242606184</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.145128049675662</v>
+        <v>2.028286942682314</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.479554803657209</v>
+        <v>1.644415665575309</v>
       </c>
       <c r="C9">
-        <v>0.6568982341868832</v>
+        <v>0.3186214386605286</v>
       </c>
       <c r="D9">
-        <v>0.06450857139883226</v>
+        <v>0.02798669033025192</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5080295408365245</v>
+        <v>0.6074288944882511</v>
       </c>
       <c r="G9">
-        <v>0.0007764347434570201</v>
+        <v>0.002404608354502186</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1763773166135927</v>
+        <v>0.5208050482568005</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5154349567216059</v>
+        <v>0.3263644371581051</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.310700501495091</v>
+        <v>2.003697709561408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.324055410862968</v>
+        <v>1.904492051990701</v>
       </c>
       <c r="C10">
-        <v>0.7529560947915854</v>
+        <v>0.3501952393274337</v>
       </c>
       <c r="D10">
-        <v>0.07470884603272054</v>
+        <v>0.03137009517538303</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5801752532554403</v>
+        <v>0.6127108210455248</v>
       </c>
       <c r="G10">
-        <v>0.0007691658753838335</v>
+        <v>0.002400186748264673</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1701025267653833</v>
+        <v>0.5064034727523499</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6100528513698862</v>
+        <v>0.3489397882751604</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.45971936685288</v>
+        <v>1.994712014660649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.710397534081437</v>
+        <v>2.022631450598681</v>
       </c>
       <c r="C11">
-        <v>0.7968140731923086</v>
+        <v>0.3645101100300678</v>
       </c>
       <c r="D11">
-        <v>0.07936273307135622</v>
+        <v>0.03290279979650279</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.615181587068335</v>
+        <v>0.6157030322003791</v>
       </c>
       <c r="G11">
-        <v>0.0007659311776487762</v>
+        <v>0.002398271326198344</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1688253852663237</v>
+        <v>0.5003630605875209</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6540033656198574</v>
+        <v>0.3593952112195495</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.534582712877523</v>
+        <v>1.992612106758742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.857077597039904</v>
+        <v>2.067341470047495</v>
       </c>
       <c r="C12">
-        <v>0.8134510408451376</v>
+        <v>0.3699235461115222</v>
       </c>
       <c r="D12">
-        <v>0.08112765051794923</v>
+        <v>0.0334822434532569</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6287847045346666</v>
+        <v>0.6169212269532949</v>
       </c>
       <c r="G12">
-        <v>0.0007647159493160798</v>
+        <v>0.002397559735745174</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1685882560450835</v>
+        <v>0.4981494705207012</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6707939754572436</v>
+        <v>0.3633811587519915</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.564050923005482</v>
+        <v>1.992104029784088</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.82546934434356</v>
+        <v>2.057713595480152</v>
       </c>
       <c r="C13">
-        <v>0.8098665888607854</v>
+        <v>0.368757995956571</v>
       </c>
       <c r="D13">
-        <v>0.08074741825733867</v>
+        <v>0.03335749306386759</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6258390525077004</v>
+        <v>0.6166550761207645</v>
       </c>
       <c r="G13">
-        <v>0.0007649772510382444</v>
+        <v>0.002397712379638131</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.168628032967451</v>
+        <v>0.4986229202895558</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6671709733018787</v>
+        <v>0.3625215260346835</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.557652934952159</v>
+        <v>1.992200663525722</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.722456951265542</v>
+        <v>2.026310320957521</v>
       </c>
       <c r="C14">
-        <v>0.7981821922304846</v>
+        <v>0.3649556249330317</v>
       </c>
       <c r="D14">
-        <v>0.07950787821202709</v>
+        <v>0.03295049037824072</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6162935743600571</v>
+        <v>0.6158015461063542</v>
       </c>
       <c r="G14">
-        <v>0.0007658310100985527</v>
+        <v>0.002398212508337832</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1688008180597222</v>
+        <v>0.5001794667027717</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6553816813786426</v>
+        <v>0.3597226023516953</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.536984039378581</v>
+        <v>1.992564545487483</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.65941058033178</v>
+        <v>2.007071350641752</v>
       </c>
       <c r="C15">
-        <v>0.7910291067382218</v>
+        <v>0.3626256022101018</v>
       </c>
       <c r="D15">
-        <v>0.0787489809363322</v>
+        <v>0.0327010636566385</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6104928889227921</v>
+        <v>0.6152898283978487</v>
       </c>
       <c r="G15">
-        <v>0.0007663552023824411</v>
+        <v>0.002398520638877458</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1689393656694271</v>
+        <v>0.5011425142541448</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6481801335498432</v>
+        <v>0.3580116583825657</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.524472644916358</v>
+        <v>1.992824862107682</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.298856482150654</v>
+        <v>1.896767736125753</v>
       </c>
       <c r="C16">
-        <v>0.7500935903307209</v>
+        <v>0.3492587276998904</v>
       </c>
       <c r="D16">
-        <v>0.07440503128751175</v>
+        <v>0.03126979710041411</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5779342338370554</v>
+        <v>0.6125271638672487</v>
       </c>
       <c r="G16">
-        <v>0.00076937866260407</v>
+        <v>0.002400313851556146</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1702193780323853</v>
+        <v>0.5068085358336596</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6072002727729426</v>
+        <v>0.3482602393936958</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.454977740702049</v>
+        <v>1.994889356280964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.078271744305312</v>
+        <v>1.829054712202435</v>
       </c>
       <c r="C17">
-        <v>0.7250261051392499</v>
+        <v>0.3410459764474751</v>
       </c>
       <c r="D17">
-        <v>0.07174409653364933</v>
+        <v>0.03039009150894856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.558543006690158</v>
+        <v>0.6109835765280422</v>
       </c>
       <c r="G17">
-        <v>0.0007712514272477385</v>
+        <v>0.002401438468042329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.171422136593371</v>
+        <v>0.5104155410963997</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5823046980938216</v>
+        <v>0.3423256361576819</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.414226635141944</v>
+        <v>1.996665873966464</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.951597511778857</v>
+        <v>1.790092043017125</v>
       </c>
       <c r="C18">
-        <v>0.7106227065266353</v>
+        <v>0.3363177028329289</v>
       </c>
       <c r="D18">
-        <v>0.07021484935929578</v>
+        <v>0.02988350558648278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5475934348230993</v>
+        <v>0.6101512057150629</v>
       </c>
       <c r="G18">
-        <v>0.0007723354064567788</v>
+        <v>0.002402094356641375</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1722611281340853</v>
+        <v>0.5125382683631017</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5680698325811164</v>
+        <v>0.3389296966198287</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.391446948719533</v>
+        <v>1.997874698331145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.908740212708949</v>
+        <v>1.776897286387793</v>
       </c>
       <c r="C19">
-        <v>0.7057483299231819</v>
+        <v>0.3347160260553323</v>
       </c>
       <c r="D19">
-        <v>0.06969726973657231</v>
+        <v>0.02971188187419216</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5439201425469093</v>
+        <v>0.609878893862458</v>
       </c>
       <c r="G19">
-        <v>0.0007727036130631639</v>
+        <v>0.002402317983828573</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1725699023025022</v>
+        <v>0.5132652344881699</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5632641567976151</v>
+        <v>0.3377828935943938</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.383844395295938</v>
+        <v>1.998316067012041</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.101732164508064</v>
+        <v>1.836264544259905</v>
       </c>
       <c r="C20">
-        <v>0.7276930143441689</v>
+        <v>0.3419207078971453</v>
       </c>
       <c r="D20">
-        <v>0.07202722370685422</v>
+        <v>0.03048380028317865</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5605859212676805</v>
+        <v>0.6111421516175355</v>
       </c>
       <c r="G20">
-        <v>0.000771051367624086</v>
+        <v>0.002401317815914716</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1712787288716449</v>
+        <v>0.510026591572899</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.584946020361599</v>
+        <v>0.3429555750071955</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.418495715560937</v>
+        <v>1.996457395634849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.752703285435928</v>
+        <v>2.035534969390653</v>
       </c>
       <c r="C21">
-        <v>0.8016133495701467</v>
+        <v>0.3660726743197245</v>
       </c>
       <c r="D21">
-        <v>0.07987188563011927</v>
+        <v>0.03307006321631434</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6190876238778174</v>
+        <v>0.6160499359472595</v>
       </c>
       <c r="G21">
-        <v>0.0007655799831389198</v>
+        <v>0.002398065236067938</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1687432124515098</v>
+        <v>0.4997202663684028</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6588403375748442</v>
+        <v>0.3605439893715072</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.543023770742025</v>
+        <v>1.992449862211885</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.18040533449954</v>
+        <v>2.165612425502786</v>
       </c>
       <c r="C22">
-        <v>0.8500961084260439</v>
+        <v>0.3818146956950557</v>
       </c>
       <c r="D22">
-        <v>0.08501426005012291</v>
+        <v>0.03475473389321593</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6593613153215472</v>
+        <v>0.6197536994883706</v>
       </c>
       <c r="G22">
-        <v>0.0007620602030502222</v>
+        <v>0.002396019534236907</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1685331571418445</v>
+        <v>0.4934146942099957</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7080031619549914</v>
+        <v>0.372194692444026</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.630986271652006</v>
+        <v>1.99150480921486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.951902367693776</v>
+        <v>2.096202773732387</v>
       </c>
       <c r="C23">
-        <v>0.8242021979490062</v>
+        <v>0.3734169069597897</v>
       </c>
       <c r="D23">
-        <v>0.08226804634208662</v>
+        <v>0.03385611736348437</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.637668451757051</v>
+        <v>0.6177314101501992</v>
       </c>
       <c r="G23">
-        <v>0.0007639338767579019</v>
+        <v>0.002397104060774567</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1685059456328091</v>
+        <v>0.4967406302247319</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6816786143963327</v>
+        <v>0.3659622533231186</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.583401465309862</v>
+        <v>1.991855600020358</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.091125268589565</v>
+        <v>1.833005083522778</v>
       </c>
       <c r="C24">
-        <v>0.7264872794804091</v>
+        <v>0.3415252625074459</v>
       </c>
       <c r="D24">
-        <v>0.07189922021463246</v>
+        <v>0.03044143713383107</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5596617030988185</v>
+        <v>0.6110702883428587</v>
       </c>
       <c r="G24">
-        <v>0.0007711417917736774</v>
+        <v>0.002401372333657596</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1713431055129035</v>
+        <v>0.510202283004709</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5837516370833953</v>
+        <v>0.3426707299947367</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.416563651454283</v>
+        <v>1.996551064788775</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.170064534707194</v>
+        <v>1.548503122685588</v>
       </c>
       <c r="C25">
-        <v>0.6216307181445018</v>
+        <v>0.306953671795668</v>
       </c>
       <c r="D25">
-        <v>0.06076058178459931</v>
+        <v>0.02673524591683218</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4831976029962561</v>
+        <v>0.60600402732954</v>
       </c>
       <c r="G25">
-        <v>0.0007791795360883591</v>
+        <v>0.002406322205244317</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1799639848869425</v>
+        <v>0.5265595451710361</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4812912402265965</v>
+        <v>0.3182155594003859</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.261460919580458</v>
+        <v>2.008760619824443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.338543043387347</v>
+        <v>3.495879150810765</v>
       </c>
       <c r="C2">
-        <v>0.2813589074824279</v>
+        <v>0.5446869319787027</v>
       </c>
       <c r="D2">
-        <v>0.02398733850719026</v>
+        <v>0.05257666190619403</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6040807872797771</v>
+        <v>0.4324038836558728</v>
       </c>
       <c r="G2">
-        <v>0.002410267303696152</v>
+        <v>0.000785347217695301</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5401732232996466</v>
+        <v>0.1904378979387644</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3007798078620425</v>
+        <v>0.4079974107167175</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.023845372558668</v>
+        <v>1.165219048924854</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.195971690265196</v>
+        <v>3.040399026687339</v>
       </c>
       <c r="C3">
-        <v>0.2639301899934594</v>
+        <v>0.4926139910261327</v>
       </c>
       <c r="D3">
-        <v>0.02211355234758372</v>
+        <v>0.0470315904903913</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6038970663067218</v>
+        <v>0.4009187473370091</v>
       </c>
       <c r="G3">
-        <v>0.002413129957934696</v>
+        <v>0.0007896934706810096</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5503736551894391</v>
+        <v>0.1998129722632775</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2893174225126529</v>
+        <v>0.35940456020586</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.037845517922548</v>
+        <v>1.1096527344734</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.108304077494893</v>
+        <v>2.76111885324076</v>
       </c>
       <c r="C4">
-        <v>0.2531897416896243</v>
+        <v>0.4606505634684765</v>
       </c>
       <c r="D4">
-        <v>0.02095752483778313</v>
+        <v>0.04362472947956775</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6043341583847521</v>
+        <v>0.3828847955294279</v>
       </c>
       <c r="G4">
-        <v>0.002414981385356337</v>
+        <v>0.0007924474113548832</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5571156514128255</v>
+        <v>0.2066014836298002</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2824536761256695</v>
+        <v>0.3300220269984067</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.048296630088643</v>
+        <v>1.079828006273601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072548741422565</v>
+        <v>2.64736555436491</v>
       </c>
       <c r="C5">
-        <v>0.2488034291330905</v>
+        <v>0.4476242615145907</v>
       </c>
       <c r="D5">
-        <v>0.02048508053957221</v>
+        <v>0.04223550630068473</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6046502408421972</v>
+        <v>0.3758411206881291</v>
       </c>
       <c r="G5">
-        <v>0.002415759501094551</v>
+        <v>0.0007935915700137408</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5599832255359409</v>
+        <v>0.2096146081236903</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2797004615133858</v>
+        <v>0.3181517075863525</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.0530208597269</v>
+        <v>1.068687992831258</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.066609843196773</v>
+        <v>2.628479106541249</v>
       </c>
       <c r="C6">
-        <v>0.2480745223288068</v>
+        <v>0.4454611042253589</v>
       </c>
       <c r="D6">
-        <v>0.02040655074555531</v>
+        <v>0.04200476268901099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6047110496029475</v>
+        <v>0.3746893673678642</v>
       </c>
       <c r="G6">
-        <v>0.002415890136846016</v>
+        <v>0.0007937828924197143</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5604666333829691</v>
+        <v>0.2101294763433046</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2792459392174607</v>
+        <v>0.3161865855948918</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.053833385271048</v>
+        <v>1.066897575700978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.107821987395027</v>
+        <v>2.759584564029524</v>
       </c>
       <c r="C7">
-        <v>0.2531306243133429</v>
+        <v>0.4604748942642232</v>
       </c>
       <c r="D7">
-        <v>0.02095115872523223</v>
+        <v>0.04360599802096488</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.604337862988956</v>
+        <v>0.3827885929818464</v>
       </c>
       <c r="G7">
-        <v>0.002414991783495257</v>
+        <v>0.0007924627526410686</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5571538383664887</v>
+        <v>0.2066411370346977</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2824163678756548</v>
+        <v>0.3298615352629923</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.048358460158212</v>
+        <v>1.079673747701349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.289412306359395</v>
+        <v>3.338723365854662</v>
       </c>
       <c r="C8">
-        <v>0.2753578143520485</v>
+        <v>0.5267280765849875</v>
       </c>
       <c r="D8">
-        <v>0.02334242096022621</v>
+        <v>0.0506649459316435</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6039031193650075</v>
+        <v>0.4212653480174708</v>
       </c>
       <c r="G8">
-        <v>0.00241123493252708</v>
+        <v>0.0007868283750441796</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5435907805346893</v>
+        <v>0.1934482892120144</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2967914242606184</v>
+        <v>0.3911417448485679</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.028286942682314</v>
+        <v>1.145128049675719</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.644415665575309</v>
+        <v>4.479554803657209</v>
       </c>
       <c r="C9">
-        <v>0.3186214386605286</v>
+        <v>0.6568982341864285</v>
       </c>
       <c r="D9">
-        <v>0.02798669033025192</v>
+        <v>0.06450857139871147</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6074288944882511</v>
+        <v>0.5080295408365387</v>
       </c>
       <c r="G9">
-        <v>0.002404608354502186</v>
+        <v>0.0007764347434777848</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5208050482568005</v>
+        <v>0.1763773166135962</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3263644371581051</v>
+        <v>0.5154349567216201</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.003697709561408</v>
+        <v>1.31070050149512</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.904492051990701</v>
+        <v>5.324055410862968</v>
       </c>
       <c r="C10">
-        <v>0.3501952393274337</v>
+        <v>0.7529560947910738</v>
       </c>
       <c r="D10">
-        <v>0.03137009517538303</v>
+        <v>0.07470884603282713</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6127108210455248</v>
+        <v>0.5801752532554474</v>
       </c>
       <c r="G10">
-        <v>0.002400186748264673</v>
+        <v>0.0007691658754113783</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5064034727523499</v>
+        <v>0.1701025267653797</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3489397882751604</v>
+        <v>0.610052851369943</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.994712014660649</v>
+        <v>1.459719366852852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.022631450598681</v>
+        <v>5.710397534081324</v>
       </c>
       <c r="C11">
-        <v>0.3645101100300678</v>
+        <v>0.7968140731923086</v>
       </c>
       <c r="D11">
-        <v>0.03290279979650279</v>
+        <v>0.07936273307135622</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6157030322003791</v>
+        <v>0.6151815870683208</v>
       </c>
       <c r="G11">
-        <v>0.002398271326198344</v>
+        <v>0.000765931177730696</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5003630605875209</v>
+        <v>0.1688253852663202</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3593952112195495</v>
+        <v>0.6540033656199142</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.992612106758742</v>
+        <v>1.534582712877437</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.067341470047495</v>
+        <v>5.857077597039904</v>
       </c>
       <c r="C12">
-        <v>0.3699235461115222</v>
+        <v>0.813451040845365</v>
       </c>
       <c r="D12">
-        <v>0.0334822434532569</v>
+        <v>0.08112765051767212</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6169212269532949</v>
+        <v>0.6287847045346524</v>
       </c>
       <c r="G12">
-        <v>0.002397559735745174</v>
+        <v>0.0007647159492908809</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4981494705207012</v>
+        <v>0.1685882560450835</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3633811587519915</v>
+        <v>0.6707939754572152</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.992104029784088</v>
+        <v>1.564050923005539</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.057713595480152</v>
+        <v>5.825469344343389</v>
       </c>
       <c r="C13">
-        <v>0.368757995956571</v>
+        <v>0.8098665888607854</v>
       </c>
       <c r="D13">
-        <v>0.03335749306386759</v>
+        <v>0.08074741825721787</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6166550761207645</v>
+        <v>0.6258390525077004</v>
       </c>
       <c r="G13">
-        <v>0.002397712379638131</v>
+        <v>0.0007649772510663676</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4986229202895558</v>
+        <v>0.1686280329674403</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3625215260346835</v>
+        <v>0.6671709733019355</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.992200663525722</v>
+        <v>1.557652934952159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.026310320957521</v>
+        <v>5.722456951265428</v>
       </c>
       <c r="C14">
-        <v>0.3649556249330317</v>
+        <v>0.798182192230712</v>
       </c>
       <c r="D14">
-        <v>0.03295049037824072</v>
+        <v>0.07950787821207683</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6158015461063542</v>
+        <v>0.6162935743600571</v>
       </c>
       <c r="G14">
-        <v>0.002398212508337832</v>
+        <v>0.000765831010092806</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5001794667027717</v>
+        <v>0.16880081805974</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3597226023516953</v>
+        <v>0.6553816813786</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.992564545487483</v>
+        <v>1.536984039378694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.007071350641752</v>
+        <v>5.659410580331496</v>
       </c>
       <c r="C15">
-        <v>0.3626256022101018</v>
+        <v>0.7910291067380797</v>
       </c>
       <c r="D15">
-        <v>0.0327010636566385</v>
+        <v>0.07874898093655958</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6152898283978487</v>
+        <v>0.6104928889227637</v>
       </c>
       <c r="G15">
-        <v>0.002398520638877458</v>
+        <v>0.0007663552024062683</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5011425142541448</v>
+        <v>0.1689393656694094</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3580116583825657</v>
+        <v>0.6481801335498005</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.992824862107682</v>
+        <v>1.524472644916415</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.896767736125753</v>
+        <v>5.298856482150597</v>
       </c>
       <c r="C16">
-        <v>0.3492587276998904</v>
+        <v>0.7500935903307777</v>
       </c>
       <c r="D16">
-        <v>0.03126979710041411</v>
+        <v>0.07440503128761833</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6125271638672487</v>
+        <v>0.5779342338370697</v>
       </c>
       <c r="G16">
-        <v>0.002400313851556146</v>
+        <v>0.0007693786626041414</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5068085358336596</v>
+        <v>0.1702193780323817</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3482602393936958</v>
+        <v>0.6072002727730137</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.994889356280964</v>
+        <v>1.454977740702105</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.829054712202435</v>
+        <v>5.078271744305255</v>
       </c>
       <c r="C17">
-        <v>0.3410459764474751</v>
+        <v>0.7250261051389941</v>
       </c>
       <c r="D17">
-        <v>0.03039009150894856</v>
+        <v>0.07174409653359248</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6109835765280422</v>
+        <v>0.558543006690158</v>
       </c>
       <c r="G17">
-        <v>0.002401438468042329</v>
+        <v>0.000771251427247595</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5104155410963997</v>
+        <v>0.1714221365933568</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3423256361576819</v>
+        <v>0.5823046980937647</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.996665873966464</v>
+        <v>1.414226635141972</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.790092043017125</v>
+        <v>4.95159751177863</v>
       </c>
       <c r="C18">
-        <v>0.3363177028329289</v>
+        <v>0.7106227065266353</v>
       </c>
       <c r="D18">
-        <v>0.02988350558648278</v>
+        <v>0.07021484935938105</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6101512057150629</v>
+        <v>0.5475934348231135</v>
       </c>
       <c r="G18">
-        <v>0.002402094356641375</v>
+        <v>0.0007723354065018497</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5125382683631017</v>
+        <v>0.1722611281340853</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3389296966198287</v>
+        <v>0.5680698325811733</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.997874698331145</v>
+        <v>1.391446948719505</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.776897286387793</v>
+        <v>4.908740212709006</v>
       </c>
       <c r="C19">
-        <v>0.3347160260553323</v>
+        <v>0.7057483299231535</v>
       </c>
       <c r="D19">
-        <v>0.02971188187419216</v>
+        <v>0.06969726973652968</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.609878893862458</v>
+        <v>0.5439201425469022</v>
       </c>
       <c r="G19">
-        <v>0.002402317983828573</v>
+        <v>0.0007727036131205911</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5132652344881699</v>
+        <v>0.1725699023025093</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3377828935943938</v>
+        <v>0.5632641567975583</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.998316067012041</v>
+        <v>1.383844395295938</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.836264544259905</v>
+        <v>5.101732164508064</v>
       </c>
       <c r="C20">
-        <v>0.3419207078971453</v>
+        <v>0.7276930143441405</v>
       </c>
       <c r="D20">
-        <v>0.03048380028317865</v>
+        <v>0.07202722370708869</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6111421516175355</v>
+        <v>0.5605859212676663</v>
       </c>
       <c r="G20">
-        <v>0.002401317815914716</v>
+        <v>0.0007710513675908006</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.510026591572899</v>
+        <v>0.1712787288716271</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3429555750071955</v>
+        <v>0.5849460203616985</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.996457395634849</v>
+        <v>1.418495715560937</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.035534969390653</v>
+        <v>5.752703285435985</v>
       </c>
       <c r="C21">
-        <v>0.3660726743197245</v>
+        <v>0.8016133495704878</v>
       </c>
       <c r="D21">
-        <v>0.03307006321631434</v>
+        <v>0.07987188562989189</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6160499359472595</v>
+        <v>0.6190876238778174</v>
       </c>
       <c r="G21">
-        <v>0.002398065236067938</v>
+        <v>0.0007655799831679647</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4997202663684028</v>
+        <v>0.168743212451524</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3605439893715072</v>
+        <v>0.6588403375748157</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.992449862211885</v>
+        <v>1.543023770742167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.165612425502786</v>
+        <v>6.180405334499596</v>
       </c>
       <c r="C22">
-        <v>0.3818146956950557</v>
+        <v>0.8500961084259586</v>
       </c>
       <c r="D22">
-        <v>0.03475473389321593</v>
+        <v>0.08501426005012291</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6197536994883706</v>
+        <v>0.659361315321533</v>
       </c>
       <c r="G22">
-        <v>0.002396019534236907</v>
+        <v>0.0007620602030000459</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4934146942099957</v>
+        <v>0.168533157141848</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.372194692444026</v>
+        <v>0.7080031619550056</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.99150480921486</v>
+        <v>1.630986271652148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.096202773732387</v>
+        <v>5.951902367693435</v>
       </c>
       <c r="C23">
-        <v>0.3734169069597897</v>
+        <v>0.8242021979491199</v>
       </c>
       <c r="D23">
-        <v>0.03385611736348437</v>
+        <v>0.08226804634191609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6177314101501992</v>
+        <v>0.6376684517570794</v>
       </c>
       <c r="G23">
-        <v>0.002397104060774567</v>
+        <v>0.0007639338767608784</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4967406302247319</v>
+        <v>0.1685059456328233</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3659622533231186</v>
+        <v>0.6816786143963469</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.991855600020358</v>
+        <v>1.583401465309777</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.833005083522778</v>
+        <v>5.091125268589224</v>
       </c>
       <c r="C24">
-        <v>0.3415252625074459</v>
+        <v>0.7264872794805513</v>
       </c>
       <c r="D24">
-        <v>0.03044143713383107</v>
+        <v>0.07189922021452588</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6110702883428587</v>
+        <v>0.5596617030988398</v>
       </c>
       <c r="G24">
-        <v>0.002401372333657596</v>
+        <v>0.0007711417917740024</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.510202283004709</v>
+        <v>0.1713431055129249</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3426707299947367</v>
+        <v>0.5837516370832674</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.996551064788775</v>
+        <v>1.416563651454254</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.548503122685588</v>
+        <v>4.17006453470691</v>
       </c>
       <c r="C25">
-        <v>0.306953671795668</v>
+        <v>0.621630718144246</v>
       </c>
       <c r="D25">
-        <v>0.02673524591683218</v>
+        <v>0.06076058178466326</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.60600402732954</v>
+        <v>0.4831976029962703</v>
       </c>
       <c r="G25">
-        <v>0.002406322205244317</v>
+        <v>0.0007791795361440298</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5265595451710361</v>
+        <v>0.1799639848869532</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3182155594003859</v>
+        <v>0.4812912402266676</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.008760619824443</v>
+        <v>1.261460919580486</v>
       </c>
     </row>
   </sheetData>
